--- a/Literature mapping/evaluation cards.xlsx
+++ b/Literature mapping/evaluation cards.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\Literature mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C626E-A7F8-4063-947F-232A3CC83AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D83D48-ECBD-4CF7-BED6-7D8134D7A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10410" yWindow="-17595" windowWidth="14400" windowHeight="7365" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
+    <workbookView xWindow="-30555" yWindow="-16965" windowWidth="14400" windowHeight="7365" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="3" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$B$1:$C$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1'!$B$1:$C$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$B$1:$C$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3'!$B$1:$C$210</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="173">
   <si>
     <t>Study ID            </t>
   </si>
@@ -111,15 +115,9 @@
     <t>11</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -240,12 +238,6 @@
     <t>Proceedings of the 23rd ACM/IEEEInternational Conference on Model Driven Engineering Languages and Systems</t>
   </si>
   <si>
-    <t xml:space="preserve">Enabling language engineering for the masses </t>
-  </si>
-  <si>
-    <t>M. Barash</t>
-  </si>
-  <si>
     <t>Proceedings of the 23rd ACM/IEEE International Conference on Model Driven Engineering Languages and Systems: Companion Proceedings</t>
   </si>
   <si>
@@ -256,12 +248,6 @@
   </si>
   <si>
     <t>Domain-Specific Languages in Practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example-driven software language engineering </t>
-  </si>
-  <si>
-    <t>Proceedings of the 13th ACM SIGPLAN International Conference on Software Language Engineering</t>
   </si>
   <si>
     <t xml:space="preserve">Fasten: An extensible platform to experiment with rigorous modeling of safety-critical systems </t>
@@ -502,9 +488,6 @@
 evaluation          --       negative = 5, neutral = 43, positive = 1
 results             --       negative = 5, neutral = 34, positive = 5
 conclusion          --       negative = 1, neutral = 3,  positive = 3</t>
-  </si>
-  <si>
-    <t>intro               --       negative = 4, neutral = 7, positive = 1</t>
   </si>
   <si>
     <t>intro               --       negative = 6,  neutral = 20, positive = 5
@@ -512,11 +495,6 @@
 mpsprojectional     --       negative = 2,  neutral = 18
 lessonslearned      --       negative = 11, neutral = 16, positive = 5
 conclusion          --       negative = 1,  neutral = 5,  positive = 2</t>
-  </si>
-  <si>
-    <t>intro               --       neutral = 9
-relatedprojectional --       negative = 1, neutral = 6
-discussion          --       neutral = 7</t>
   </si>
   <si>
     <t>intro               --       negative = 18, neutral = 40, positive = 11
@@ -641,9 +619,6 @@
   </si>
   <si>
     <t>Picto (Research Project using EGL, Graphviz,PlantUML)</t>
-  </si>
-  <si>
-    <t>Research Project/Vaporware</t>
   </si>
   <si>
     <t>Jetbrains MPS + Rascal</t>
@@ -787,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -821,6 +796,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,11 +1116,4401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}">
+  <dimension ref="B1:S295"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="3.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.81640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
+      <c r="M66" s="2"/>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13"/>
+    </row>
+    <row r="71" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B103" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B105" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B106" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="O106" s="5"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B115" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B116" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B123" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B124" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B125" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B126" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="O126" s="5"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B133" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B135" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B143" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B144" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B145" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M146" s="2"/>
+      <c r="O146" s="5"/>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B150" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B151" s="12"/>
+      <c r="C151" s="13"/>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B152" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B153" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B154" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B155" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B156" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B157" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B158" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="2:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B160" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E161" s="12"/>
+      <c r="F161" s="13"/>
+    </row>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B162" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E162" s="12"/>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B163" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E163" s="12"/>
+      <c r="F163" s="13"/>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B164" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E164" s="12"/>
+      <c r="F164" s="13"/>
+    </row>
+    <row r="165" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B165" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E165" s="12"/>
+      <c r="F165" s="13"/>
+      <c r="M165" s="2"/>
+      <c r="O165" s="5"/>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B166" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E166" s="12"/>
+      <c r="F166" s="13"/>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B167" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E167" s="12"/>
+      <c r="F167" s="13"/>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168" s="12"/>
+      <c r="F168" s="13"/>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E169" s="12"/>
+      <c r="F169" s="13"/>
+    </row>
+    <row r="170" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B170" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="13"/>
+    </row>
+    <row r="171" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B171" s="12"/>
+      <c r="C171" s="13"/>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B172" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B173" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B174" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B175" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B176" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B178" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B180" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B181" s="12"/>
+      <c r="C181" s="13"/>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B182" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" s="12"/>
+      <c r="F182" s="13"/>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B183" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E183" s="12"/>
+      <c r="F183" s="13"/>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B184" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C184" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E184" s="12"/>
+      <c r="F184" s="13"/>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B185" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E185" s="12"/>
+      <c r="F185" s="13"/>
+      <c r="M185" s="2"/>
+      <c r="O185" s="5"/>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B186" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186" s="12"/>
+      <c r="F186" s="13"/>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B187" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E187" s="12"/>
+      <c r="F187" s="13"/>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B188" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E188" s="12"/>
+      <c r="F188" s="13"/>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B189" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E189" s="12"/>
+      <c r="F189" s="13"/>
+    </row>
+    <row r="190" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B190" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E190" s="12"/>
+      <c r="F190" s="13"/>
+    </row>
+    <row r="191" spans="2:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B192" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B193" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B194" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B195" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B196" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B197" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B199" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" spans="2:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B200" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B202" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B203" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="204" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B204" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="205" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B205" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M205" s="2"/>
+      <c r="O205" s="5"/>
+      <c r="S205" s="2"/>
+    </row>
+    <row r="206" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B206" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="207" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B207" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="208" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B208" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B209" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B210" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B212" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B213" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B214" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C214" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B215" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B216" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B217" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B218" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B219" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B220" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B222" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B223" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B224" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="225" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B225" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M225" s="2"/>
+      <c r="O225" s="5"/>
+    </row>
+    <row r="226" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B226" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M226" s="2"/>
+      <c r="O226" s="5"/>
+    </row>
+    <row r="227" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B227" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M227" s="2"/>
+      <c r="O227" s="5"/>
+    </row>
+    <row r="228" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B228" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M228" s="2"/>
+      <c r="O228" s="5"/>
+    </row>
+    <row r="229" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B229" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M229" s="2"/>
+      <c r="O229" s="5"/>
+    </row>
+    <row r="230" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B230" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M230" s="2"/>
+      <c r="O230" s="5"/>
+    </row>
+    <row r="231" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M231" s="2"/>
+      <c r="O231" s="5"/>
+    </row>
+    <row r="232" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B232" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M232" s="2"/>
+      <c r="O232" s="5"/>
+    </row>
+    <row r="233" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B233" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M233" s="2"/>
+      <c r="O233" s="5"/>
+    </row>
+    <row r="234" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B234" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C234" s="11">
+        <v>2021</v>
+      </c>
+      <c r="M234" s="2"/>
+      <c r="O234" s="5"/>
+    </row>
+    <row r="235" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B235" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M235" s="2"/>
+      <c r="O235" s="5"/>
+    </row>
+    <row r="236" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B236" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M236" s="2"/>
+      <c r="O236" s="5"/>
+    </row>
+    <row r="237" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B237" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M237" s="2"/>
+      <c r="O237" s="5"/>
+    </row>
+    <row r="238" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B238" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M238" s="2"/>
+      <c r="O238" s="5"/>
+    </row>
+    <row r="239" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B239" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M239" s="2"/>
+      <c r="O239" s="5"/>
+    </row>
+    <row r="240" spans="2:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B240" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M240" s="2"/>
+      <c r="O240" s="5"/>
+    </row>
+    <row r="241" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M241" s="2"/>
+      <c r="O241" s="5"/>
+    </row>
+    <row r="242" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B242" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M242" s="2"/>
+      <c r="O242" s="5"/>
+    </row>
+    <row r="243" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B243" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M243" s="2"/>
+      <c r="O243" s="5"/>
+    </row>
+    <row r="244" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B244" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C244" s="11">
+        <v>2021</v>
+      </c>
+      <c r="M244" s="2"/>
+      <c r="O244" s="5"/>
+    </row>
+    <row r="245" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B245" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M245" s="2"/>
+      <c r="O245" s="5"/>
+    </row>
+    <row r="246" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B246" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M246" s="2"/>
+      <c r="O246" s="5"/>
+    </row>
+    <row r="247" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B247" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M247" s="2"/>
+      <c r="O247" s="5"/>
+    </row>
+    <row r="248" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B248" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M248" s="2"/>
+      <c r="O248" s="5"/>
+    </row>
+    <row r="249" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B249" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M249" s="2"/>
+      <c r="O249" s="5"/>
+    </row>
+    <row r="250" spans="2:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B250" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M250" s="2"/>
+      <c r="O250" s="5"/>
+    </row>
+    <row r="251" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M251" s="2"/>
+      <c r="O251" s="5"/>
+    </row>
+    <row r="252" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B252" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M252" s="2"/>
+      <c r="O252" s="5"/>
+    </row>
+    <row r="253" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B253" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M253" s="2"/>
+      <c r="O253" s="5"/>
+    </row>
+    <row r="254" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B254" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C254" s="11">
+        <v>2020</v>
+      </c>
+      <c r="M254" s="2"/>
+      <c r="O254" s="5"/>
+    </row>
+    <row r="255" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B255" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M255" s="2"/>
+      <c r="O255" s="5"/>
+    </row>
+    <row r="256" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B256" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M256" s="2"/>
+      <c r="O256" s="5"/>
+    </row>
+    <row r="257" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B257" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M257" s="2"/>
+      <c r="O257" s="5"/>
+    </row>
+    <row r="258" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B258" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M258" s="2"/>
+      <c r="O258" s="5"/>
+    </row>
+    <row r="259" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B259" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M259" s="2"/>
+      <c r="O259" s="5"/>
+    </row>
+    <row r="260" spans="2:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B260" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M260" s="2"/>
+      <c r="O260" s="5"/>
+    </row>
+    <row r="261" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E261" s="5"/>
+      <c r="M261" s="2"/>
+      <c r="O261" s="5"/>
+    </row>
+    <row r="262" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B262" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E262" s="5"/>
+      <c r="M262" s="2"/>
+      <c r="O262" s="5"/>
+    </row>
+    <row r="263" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B263" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E263" s="5"/>
+      <c r="M263" s="2"/>
+      <c r="O263" s="5"/>
+    </row>
+    <row r="264" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B264" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C264" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E264" s="5"/>
+      <c r="M264" s="2"/>
+      <c r="O264" s="5"/>
+    </row>
+    <row r="265" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B265" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E265" s="5"/>
+      <c r="M265" s="2"/>
+      <c r="O265" s="5"/>
+    </row>
+    <row r="266" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B266" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E266" s="5"/>
+      <c r="M266" s="2"/>
+      <c r="O266" s="5"/>
+    </row>
+    <row r="267" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B267" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E267" s="5"/>
+      <c r="M267" s="2"/>
+      <c r="O267" s="5"/>
+    </row>
+    <row r="268" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B268" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E268" s="5"/>
+      <c r="M268" s="2"/>
+      <c r="O268" s="5"/>
+    </row>
+    <row r="269" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B269" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E269" s="5"/>
+      <c r="M269" s="2"/>
+      <c r="O269" s="5"/>
+    </row>
+    <row r="270" spans="2:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B270" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E270" s="5"/>
+      <c r="M270" s="2"/>
+      <c r="O270" s="5"/>
+    </row>
+    <row r="271" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E271" s="5"/>
+      <c r="M271" s="2"/>
+      <c r="O271" s="5"/>
+    </row>
+    <row r="272" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B272" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B273" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B274" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B275" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B276" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B277" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B278" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B279" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B280" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E281" s="5"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B282" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E282" s="5"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B283" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B284" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C284" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E284" s="5"/>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B285" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E285" s="5"/>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B286" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E286" s="5"/>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B287" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E287" s="5"/>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B288" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E288" s="5"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B289" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290" spans="2:5" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B290" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E290" s="5"/>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E291" s="5"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E292" s="5"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E293" s="5"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E294" s="5"/>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E295" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2 C12 C22 C32 C42 C52 C62 C72 C82 C92 C102 C112 C122 C132 C142 C152 C162 C172 C182 C192 C202 C212 C222 C232 C242 C252 C262 C272 C282" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461D91DF-F792-44BA-949C-1E2342351130}">
+  <dimension ref="B1:S155"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="3.08984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.36328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.81640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" ht="61" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" ht="65.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="E79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="2:15" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B103" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B105" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="O105" s="5"/>
+      <c r="S105" s="2"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B106" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+      <c r="B108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B115" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M115" s="2"/>
+      <c r="O115" s="5"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B116" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="O116" s="5"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="O117" s="5"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="O118" s="5"/>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="O119" s="5"/>
+    </row>
+    <row r="120" spans="2:15" ht="83" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="O120" s="5"/>
+    </row>
+    <row r="121" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M121" s="2"/>
+      <c r="O121" s="5"/>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M122" s="2"/>
+      <c r="O122" s="5"/>
+    </row>
+    <row r="123" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B123" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M123" s="2"/>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B124" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="11">
+        <v>2020</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B125" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="O125" s="5"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B126" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="O126" s="5"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="O127" s="5"/>
+    </row>
+    <row r="128" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="O128" s="5"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="O129" s="5"/>
+    </row>
+    <row r="130" spans="2:15" ht="33.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="O130" s="5"/>
+    </row>
+    <row r="131" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E131" s="5"/>
+      <c r="M131" s="2"/>
+      <c r="O131" s="5"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="O132" s="5"/>
+    </row>
+    <row r="133" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B133" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="O133" s="5"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="11">
+        <v>2020</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" s="11">
+        <v>2020</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="O134" s="5"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B135" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="O135" s="5"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="O136" s="5"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M137" s="2"/>
+      <c r="O137" s="5"/>
+    </row>
+    <row r="138" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="B138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="O138" s="5"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="O139" s="5"/>
+    </row>
+    <row r="140" spans="2:15" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="O140" s="5"/>
+    </row>
+    <row r="141" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E141" s="5"/>
+      <c r="M141" s="2"/>
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B142" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B143" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B144" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B145" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B148" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="2:5" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B150" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E155" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A4AEC0-BFE3-402A-84EE-308FD1307BD1}">
   <dimension ref="B1:I156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -1194,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
@@ -1242,19 +5613,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
@@ -1262,19 +5633,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -1282,7 +5653,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
@@ -1302,39 +5673,39 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1365,19 +5736,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
@@ -1405,19 +5776,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
@@ -1425,19 +5796,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
@@ -1445,19 +5816,19 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1465,19 +5836,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -1485,19 +5856,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1505,19 +5876,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1548,19 +5919,19 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
@@ -1588,19 +5959,19 @@
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
@@ -1608,19 +5979,19 @@
         <v>4</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
@@ -1628,19 +5999,19 @@
         <v>5</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
@@ -1648,19 +6019,19 @@
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
@@ -1668,19 +6039,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1688,19 +6059,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1731,19 +6102,19 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.35">
@@ -1763,7 +6134,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.35">
@@ -1771,19 +6142,19 @@
         <v>3</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.35">
@@ -1791,19 +6162,19 @@
         <v>4</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.35">
@@ -1811,19 +6182,19 @@
         <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -1831,19 +6202,19 @@
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.35">
@@ -1851,39 +6222,39 @@
         <v>7</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="57.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1914,19 +6285,19 @@
         <v>1</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.35">
@@ -1946,7 +6317,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.35">
@@ -1954,39 +6325,39 @@
         <v>3</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>136</v>
+      <c r="I46" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.35">
@@ -1994,19 +6365,19 @@
         <v>5</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -2014,19 +6385,19 @@
         <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.35">
@@ -2034,39 +6405,37 @@
         <v>7</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="2:9" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2097,7 +6466,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>1</v>
@@ -2109,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.35">
@@ -2123,21 +6492,21 @@
         <v>2</v>
       </c>
       <c r="F54" s="11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I54" s="11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>3</v>
@@ -2149,27 +6518,27 @@
         <v>3</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>134</v>
+      <c r="C56" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>135</v>
+      <c r="F56" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>124</v>
+      <c r="I56" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.35">
@@ -2177,19 +6546,19 @@
         <v>5</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -2197,55 +6566,57 @@
         <v>6</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>175</v>
-      </c>
+      <c r="C59" s="7"/>
       <c r="E59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="H59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="2:9" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I59" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2276,19 +6647,19 @@
         <v>1</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="H63" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.35">
@@ -2302,13 +6673,13 @@
         <v>2</v>
       </c>
       <c r="F64" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I64" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="29" x14ac:dyDescent="0.35">
@@ -2316,19 +6687,19 @@
         <v>3</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="H65" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.35">
@@ -2336,19 +6707,19 @@
         <v>4</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.35">
@@ -2356,39 +6727,39 @@
         <v>5</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.35">
@@ -2396,19 +6767,19 @@
         <v>7</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="49" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2416,19 +6787,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2454,7 +6825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
         <v>1</v>
       </c>
@@ -2465,13 +6836,13 @@
         <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.35">
@@ -2479,7 +6850,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>2</v>
@@ -2505,13 +6876,13 @@
         <v>3</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.35">
@@ -2519,19 +6890,19 @@
         <v>4</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="7" t="s">
-        <v>136</v>
+      <c r="I76" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.35">
@@ -2539,39 +6910,39 @@
         <v>5</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.35">
@@ -2585,33 +6956,33 @@
         <v>7</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="71.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="86.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B80" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2637,24 +7008,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.35">
@@ -2662,19 +7033,19 @@
         <v>2</v>
       </c>
       <c r="C84" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="11">
         <v>2020</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="11">
-        <v>2021</v>
-      </c>
       <c r="H84" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I84" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.35">
@@ -2682,19 +7053,19 @@
         <v>3</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" s="7" t="s">
+      <c r="H85" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.35">
@@ -2707,14 +7078,14 @@
       <c r="E86" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="9" t="s">
-        <v>135</v>
+      <c r="F86" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.35">
@@ -2722,39 +7093,39 @@
         <v>5</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="H88" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.35">
@@ -2762,39 +7133,39 @@
         <v>7</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="77.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B90" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2814,19 +7185,13 @@
       <c r="F92" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="93" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>1</v>
@@ -2834,12 +7199,6 @@
       <c r="F93" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H93" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
@@ -2852,13 +7211,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="11">
-        <v>2020</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I94" s="11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.35">
@@ -2874,19 +7227,13 @@
       <c r="F95" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B96" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>123</v>
+      <c r="C96" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>4</v>
@@ -2894,34 +7241,22 @@
       <c r="F96" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
@@ -2934,141 +7269,69 @@
       <c r="F98" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B99" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B102" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>43</v>
-      </c>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B103" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>114</v>
-      </c>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B104" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="11">
-        <v>2021</v>
-      </c>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B105" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B106" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>132</v>
-      </c>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B107" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>122</v>
-      </c>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="2:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="B109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>181</v>
-      </c>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="2:9" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>168</v>
-      </c>
+    <row r="110" spans="2:6" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E112" s="5"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.35">
@@ -3204,7 +7467,6 @@
       <c r="E156" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C111" xr:uid="{A9A4AEC0-BFE3-402A-84EE-308FD1307BD1}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Literature mapping/evaluation cards.xlsx
+++ b/Literature mapping/evaluation cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\Literature mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D83D48-ECBD-4CF7-BED6-7D8134D7A79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC94E3-AD1E-48F2-807F-49BD21B094AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30555" yWindow="-16965" windowWidth="14400" windowHeight="7365" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
+    <workbookView xWindow="-21195" yWindow="-21555" windowWidth="15510" windowHeight="20580" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1'!$B$1:$C$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$B$1:$C$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3'!$B$1:$C$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3'!$B$1:$C$295</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="175">
   <si>
     <t>Study ID            </t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>MPS, MetaEdit+, WebGME, GEMS, sirius,Xtext, MS DSL ToolsMelange, GME*</t>
+  </si>
+  <si>
+    <t>Javardise (Research Project)</t>
+  </si>
+  <si>
+    <t>ALF (Xtext) + Valkyrie (GMF)</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}">
   <dimension ref="B1:S295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A241" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F258" sqref="F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2289,7 +2295,9 @@
       <c r="B149" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="7"/>
+      <c r="C149" s="7" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="150" spans="2:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B150" s="8" t="s">
@@ -2363,7 +2371,9 @@
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="7"/>
+      <c r="C159" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="160" spans="2:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B160" s="8" t="s">
@@ -3511,6 +3521,7 @@
       <c r="E295" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:C295" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -3764,7 +3775,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -4206,7 +4217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
         <v>1</v>
       </c>
@@ -4377,7 +4388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -4589,7 +4600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
@@ -5270,7 +5281,7 @@
       <c r="M132" s="2"/>
       <c r="O132" s="5"/>
     </row>
-    <row r="133" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B133" s="6" t="s">
         <v>1</v>
       </c>
@@ -5466,7 +5477,7 @@
       </c>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="6" t="s">
         <v>7</v>
       </c>

--- a/Literature mapping/evaluation cards.xlsx
+++ b/Literature mapping/evaluation cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\Literature mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC94E3-AD1E-48F2-807F-49BD21B094AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05618D82-0B9D-44DA-8138-F4F21909BAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21195" yWindow="-21555" windowWidth="15510" windowHeight="20580" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="13400" windowHeight="10800" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="3" r:id="rId1"/>
@@ -1123,10 +1123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}">
-  <dimension ref="B1:S295"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:S295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F258" sqref="F258"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,8 +1153,7 @@
     <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1225,11 +1225,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
@@ -1301,11 +1301,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
@@ -1395,10 +1395,10 @@
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
@@ -1470,8 +1470,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
@@ -1543,11 +1543,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
         <v>6</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
         <v>7</v>
       </c>
@@ -1619,11 +1619,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1633,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="M66" s="2"/>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="6" t="s">
         <v>7</v>
       </c>
@@ -1715,8 +1715,8 @@
       <c r="E70" s="12"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
         <v>1</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="6" t="s">
         <v>7</v>
       </c>
@@ -1788,8 +1788,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>3</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="M86" s="2"/>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6" t="s">
         <v>5</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="6" t="s">
         <v>7</v>
       </c>
@@ -1863,8 +1863,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="3" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="6" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="6" t="s">
         <v>4</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="6" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="6" t="s">
         <v>7</v>
       </c>
@@ -1936,8 +1936,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" s="3" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" s="6" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="6" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" s="6" t="s">
         <v>3</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="6" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="M106" s="2"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" s="6" t="s">
         <v>5</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" s="6" t="s">
         <v>7</v>
       </c>
@@ -2011,8 +2011,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" s="3" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" s="6" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" s="6" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" s="6" t="s">
         <v>3</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" s="6" t="s">
         <v>4</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" s="6" t="s">
         <v>5</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" s="6" t="s">
         <v>6</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B119" s="6" t="s">
         <v>7</v>
       </c>
@@ -2084,8 +2084,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" s="3" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" s="6" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B124" s="6" t="s">
         <v>2</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" s="6" t="s">
         <v>3</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" s="6" t="s">
         <v>4</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="M126" s="2"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B127" s="6" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" s="6" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" s="6" t="s">
         <v>7</v>
       </c>
@@ -2159,8 +2159,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="132" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" s="3" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" s="6" t="s">
         <v>1</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" s="6" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" s="6" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" s="6" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" s="6" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" s="6" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" s="6" t="s">
         <v>7</v>
       </c>
@@ -2232,8 +2232,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:3" ht="26.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" s="3" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B143" s="6" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" s="6" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" s="6" t="s">
         <v>3</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" s="6" t="s">
         <v>4</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="M146" s="2"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" s="6" t="s">
         <v>5</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B148" s="6" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B149" s="6" t="s">
         <v>7</v>
       </c>
@@ -2307,11 +2307,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" s="12"/>
       <c r="C151" s="13"/>
     </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" s="3" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" s="6" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" s="6" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B155" s="6" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" s="6" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" s="6" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="158" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" s="6" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
@@ -2383,11 +2383,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="E161" s="12"/>
       <c r="F161" s="13"/>
     </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" s="3" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="E162" s="12"/>
       <c r="F162" s="13"/>
     </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" s="6" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="E163" s="12"/>
       <c r="F163" s="13"/>
     </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" s="6" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2417,7 @@
       <c r="E164" s="12"/>
       <c r="F164" s="13"/>
     </row>
-    <row r="165" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" s="6" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="M165" s="2"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B166" s="6" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="E166" s="12"/>
       <c r="F166" s="13"/>
     </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B167" s="6" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="13"/>
     </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" s="6" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="E168" s="12"/>
       <c r="F168" s="13"/>
     </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" s="6" t="s">
         <v>7</v>
       </c>
@@ -2479,11 +2479,11 @@
       <c r="E170" s="12"/>
       <c r="F170" s="13"/>
     </row>
-    <row r="171" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B171" s="12"/>
       <c r="C171" s="13"/>
     </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B172" s="3" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B173" s="6" t="s">
         <v>1</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" s="6" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B175" s="6" t="s">
         <v>3</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B176" s="6" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B177" s="6" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B178" s="6" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B179" s="6" t="s">
         <v>7</v>
       </c>
@@ -2555,11 +2555,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="181" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B181" s="12"/>
       <c r="C181" s="13"/>
     </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B182" s="3" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="E182" s="12"/>
       <c r="F182" s="13"/>
     </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B183" s="6" t="s">
         <v>1</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="E183" s="12"/>
       <c r="F183" s="13"/>
     </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B184" s="6" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="E184" s="12"/>
       <c r="F184" s="13"/>
     </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B185" s="6" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="M185" s="2"/>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B186" s="6" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="E186" s="12"/>
       <c r="F186" s="13"/>
     </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B187" s="6" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="E187" s="12"/>
       <c r="F187" s="13"/>
     </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B188" s="6" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="E188" s="12"/>
       <c r="F188" s="13"/>
     </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B189" s="6" t="s">
         <v>7</v>
       </c>
@@ -2651,8 +2651,8 @@
       <c r="E190" s="12"/>
       <c r="F190" s="13"/>
     </row>
-    <row r="191" spans="2:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:15" ht="10" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="192" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B192" s="3" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" s="6" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="194" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" s="6" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="195" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" s="6" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" s="6" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" s="6" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="198" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" s="6" t="s">
         <v>6</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="199" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" s="6" t="s">
         <v>7</v>
       </c>
@@ -2724,8 +2724,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="202" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:19" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="202" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" s="3" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" s="6" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="204" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" s="6" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="205" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" s="6" t="s">
         <v>3</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="O205" s="5"/>
       <c r="S205" s="2"/>
     </row>
-    <row r="206" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" s="6" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="207" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" s="6" t="s">
         <v>5</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="208" spans="2:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" s="6" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" s="6" t="s">
         <v>7</v>
       </c>
@@ -2800,8 +2800,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:3" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="212" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" s="3" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B213" s="6" t="s">
         <v>1</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B214" s="6" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B215" s="6" t="s">
         <v>3</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B216" s="6" t="s">
         <v>4</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B217" s="6" t="s">
         <v>5</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B218" s="6" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B219" s="6" t="s">
         <v>7</v>
       </c>
@@ -2873,8 +2873,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:3" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="222" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B222" s="3" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B223" s="6" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
       <c r="B224" s="6" t="s">
         <v>2</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="225" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B225" s="6" t="s">
         <v>3</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="M225" s="2"/>
       <c r="O225" s="5"/>
     </row>
-    <row r="226" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B226" s="6" t="s">
         <v>4</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="M226" s="2"/>
       <c r="O226" s="5"/>
     </row>
-    <row r="227" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B227" s="6" t="s">
         <v>5</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="M227" s="2"/>
       <c r="O227" s="5"/>
     </row>
-    <row r="228" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B228" s="6" t="s">
         <v>6</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="M228" s="2"/>
       <c r="O228" s="5"/>
     </row>
-    <row r="229" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B229" s="6" t="s">
         <v>7</v>
       </c>
@@ -2958,11 +2958,11 @@
       <c r="M230" s="2"/>
       <c r="O230" s="5"/>
     </row>
-    <row r="231" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M231" s="2"/>
       <c r="O231" s="5"/>
     </row>
-    <row r="232" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B232" s="3" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="M232" s="2"/>
       <c r="O232" s="5"/>
     </row>
-    <row r="233" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B233" s="6" t="s">
         <v>1</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="M233" s="2"/>
       <c r="O233" s="5"/>
     </row>
-    <row r="234" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B234" s="6" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="M234" s="2"/>
       <c r="O234" s="5"/>
     </row>
-    <row r="235" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B235" s="6" t="s">
         <v>3</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="M235" s="2"/>
       <c r="O235" s="5"/>
     </row>
-    <row r="236" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B236" s="6" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="M236" s="2"/>
       <c r="O236" s="5"/>
     </row>
-    <row r="237" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B237" s="6" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="M237" s="2"/>
       <c r="O237" s="5"/>
     </row>
-    <row r="238" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B238" s="6" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="M238" s="2"/>
       <c r="O238" s="5"/>
     </row>
-    <row r="239" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B239" s="6" t="s">
         <v>7</v>
       </c>
@@ -3052,11 +3052,11 @@
       <c r="M240" s="2"/>
       <c r="O240" s="5"/>
     </row>
-    <row r="241" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="M241" s="2"/>
       <c r="O241" s="5"/>
     </row>
-    <row r="242" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B242" s="3" t="s">
         <v>0</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="M242" s="2"/>
       <c r="O242" s="5"/>
     </row>
-    <row r="243" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B243" s="6" t="s">
         <v>1</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="M243" s="2"/>
       <c r="O243" s="5"/>
     </row>
-    <row r="244" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B244" s="6" t="s">
         <v>2</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="M244" s="2"/>
       <c r="O244" s="5"/>
     </row>
-    <row r="245" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B245" s="6" t="s">
         <v>3</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="M245" s="2"/>
       <c r="O245" s="5"/>
     </row>
-    <row r="246" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B246" s="6" t="s">
         <v>4</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="M246" s="2"/>
       <c r="O246" s="5"/>
     </row>
-    <row r="247" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B247" s="6" t="s">
         <v>5</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="M247" s="2"/>
       <c r="O247" s="5"/>
     </row>
-    <row r="248" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B248" s="6" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="M248" s="2"/>
       <c r="O248" s="5"/>
     </row>
-    <row r="249" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B249" s="6" t="s">
         <v>7</v>
       </c>
@@ -3146,11 +3146,11 @@
       <c r="M250" s="2"/>
       <c r="O250" s="5"/>
     </row>
-    <row r="251" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="M251" s="2"/>
       <c r="O251" s="5"/>
     </row>
-    <row r="252" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B252" s="3" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="M252" s="2"/>
       <c r="O252" s="5"/>
     </row>
-    <row r="253" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B253" s="6" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="M253" s="2"/>
       <c r="O253" s="5"/>
     </row>
-    <row r="254" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B254" s="6" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="M254" s="2"/>
       <c r="O254" s="5"/>
     </row>
-    <row r="255" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B255" s="6" t="s">
         <v>3</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="M255" s="2"/>
       <c r="O255" s="5"/>
     </row>
-    <row r="256" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B256" s="6" t="s">
         <v>4</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="M256" s="2"/>
       <c r="O256" s="5"/>
     </row>
-    <row r="257" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B257" s="6" t="s">
         <v>5</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="M257" s="2"/>
       <c r="O257" s="5"/>
     </row>
-    <row r="258" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B258" s="6" t="s">
         <v>6</v>
       </c>
@@ -3220,7 +3220,7 @@
       <c r="M258" s="2"/>
       <c r="O258" s="5"/>
     </row>
-    <row r="259" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B259" s="6" t="s">
         <v>7</v>
       </c>
@@ -3240,12 +3240,12 @@
       <c r="M260" s="2"/>
       <c r="O260" s="5"/>
     </row>
-    <row r="261" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="E261" s="5"/>
       <c r="M261" s="2"/>
       <c r="O261" s="5"/>
     </row>
-    <row r="262" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B262" s="3" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="M262" s="2"/>
       <c r="O262" s="5"/>
     </row>
-    <row r="263" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B263" s="6" t="s">
         <v>1</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="M263" s="2"/>
       <c r="O263" s="5"/>
     </row>
-    <row r="264" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B264" s="6" t="s">
         <v>2</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="M264" s="2"/>
       <c r="O264" s="5"/>
     </row>
-    <row r="265" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B265" s="6" t="s">
         <v>3</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="M265" s="2"/>
       <c r="O265" s="5"/>
     </row>
-    <row r="266" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B266" s="6" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3300,7 @@
       <c r="M266" s="2"/>
       <c r="O266" s="5"/>
     </row>
-    <row r="267" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B267" s="6" t="s">
         <v>5</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="M267" s="2"/>
       <c r="O267" s="5"/>
     </row>
-    <row r="268" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B268" s="6" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="M268" s="2"/>
       <c r="O268" s="5"/>
     </row>
-    <row r="269" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B269" s="6" t="s">
         <v>7</v>
       </c>
@@ -3344,12 +3344,12 @@
       <c r="M270" s="2"/>
       <c r="O270" s="5"/>
     </row>
-    <row r="271" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="E271" s="5"/>
       <c r="M271" s="2"/>
       <c r="O271" s="5"/>
     </row>
-    <row r="272" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="B272" s="3" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B273" s="6" t="s">
         <v>1</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B274" s="6" t="s">
         <v>2</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B275" s="6" t="s">
         <v>3</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B276" s="6" t="s">
         <v>4</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B277" s="6" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B278" s="6" t="s">
         <v>6</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B279" s="6" t="s">
         <v>7</v>
       </c>
@@ -3421,10 +3421,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B282" s="3" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B283" s="6" t="s">
         <v>1</v>
       </c>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B284" s="6" t="s">
         <v>2</v>
       </c>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B285" s="6" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B286" s="6" t="s">
         <v>4</v>
       </c>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B287" s="6" t="s">
         <v>5</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B288" s="6" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B289" s="6" t="s">
         <v>7</v>
       </c>
@@ -3505,23 +3505,29 @@
       </c>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="E295" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C295" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}"/>
+  <autoFilter ref="B1:C295" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sentiment           "/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/Literature mapping/evaluation cards.xlsx
+++ b/Literature mapping/evaluation cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Thesis2021\Literature mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05618D82-0B9D-44DA-8138-F4F21909BAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A351E4-32A2-41F2-AB5D-C8756E984904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="13400" windowHeight="10800" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{0571A6F9-7A2C-49A8-A015-CDF9129AD4D1}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="178">
   <si>
     <t>Study ID            </t>
   </si>
@@ -637,6 +637,15 @@
   </si>
   <si>
     <t>ALF (Xtext) + Valkyrie (GMF)</t>
+  </si>
+  <si>
+    <t>Design Science Research</t>
+  </si>
+  <si>
+    <t>Design Science Research + Qualitative Study</t>
+  </si>
+  <si>
+    <t>Design Science Research + Case Study</t>
   </si>
 </sst>
 </file>
@@ -1123,11 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:S295"/>
+  <dimension ref="B1:S295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,7 +1161,8 @@
     <col min="20" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1202,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1225,11 +1234,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1269,15 +1278,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
@@ -1301,11 +1310,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1324,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1334,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1344,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1354,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -1355,17 +1364,17 @@
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1384,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
@@ -1395,10 +1404,10 @@
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="6" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1431,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="6" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
@@ -1438,15 +1447,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B38" s="6" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
@@ -1470,8 +1479,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="6" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45" s="6" t="s">
         <v>3</v>
       </c>
@@ -1503,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="s">
         <v>4</v>
       </c>
@@ -1511,15 +1520,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48" s="6" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
@@ -1543,11 +1552,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="6" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="6" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="6" t="s">
         <v>4</v>
       </c>
@@ -1587,15 +1596,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="s">
         <v>6</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
         <v>7</v>
       </c>
@@ -1619,11 +1628,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
@@ -1633,7 +1642,7 @@
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="2:6" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B63" s="6" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1652,7 @@
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
         <v>2</v>
       </c>
@@ -1653,7 +1662,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="6" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1672,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="6" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1684,7 @@
       <c r="M66" s="2"/>
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B67" s="6" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +1694,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B68" s="6" t="s">
         <v>6</v>
       </c>
@@ -1695,7 +1704,7 @@
       <c r="E68" s="12"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B69" s="6" t="s">
         <v>7</v>
       </c>
@@ -1715,8 +1724,8 @@
       <c r="E70" s="12"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B73" s="6" t="s">
         <v>1</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B74" s="6" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1749,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B75" s="6" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B76" s="6" t="s">
         <v>4</v>
       </c>
@@ -1756,15 +1765,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B77" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B78" s="6" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1781,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B79" s="6" t="s">
         <v>7</v>
       </c>
@@ -1788,8 +1797,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B83" s="6" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B84" s="6" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>3</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>4</v>
       </c>
@@ -1831,15 +1840,15 @@
       <c r="M86" s="2"/>
       <c r="O86" s="5"/>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B87" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B88" s="6" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B89" s="6" t="s">
         <v>7</v>
       </c>
@@ -1863,8 +1872,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="10.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:15" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B92" s="3" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B93" s="6" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B94" s="6" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="95" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B95" s="6" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B96" s="6" t="s">
         <v>4</v>
       </c>
@@ -1904,15 +1913,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B97" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B98" s="6" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="99" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B99" s="6" t="s">
         <v>7</v>
       </c>
@@ -1936,8 +1945,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B102" s="3" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B103" s="6" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="104" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B104" s="6" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="105" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B105" s="6" t="s">
         <v>3</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B106" s="6" t="s">
         <v>4</v>
       </c>
@@ -1979,15 +1988,15 @@
       <c r="M106" s="2"/>
       <c r="O106" s="5"/>
     </row>
-    <row r="107" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B107" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B108" s="6" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B109" s="6" t="s">
         <v>7</v>
       </c>
@@ -2011,8 +2020,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B112" s="3" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="6" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B114" s="6" t="s">
         <v>2</v>
       </c>
@@ -2036,7 +2045,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="6" t="s">
         <v>3</v>
       </c>
@@ -2044,7 +2053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B116" s="6" t="s">
         <v>4</v>
       </c>
@@ -2052,15 +2061,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B117" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B118" s="6" t="s">
         <v>6</v>
       </c>
@@ -2068,7 +2077,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B119" s="6" t="s">
         <v>7</v>
       </c>
@@ -2084,8 +2093,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B122" s="3" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B123" s="6" t="s">
         <v>1</v>
       </c>
@@ -2101,7 +2110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B124" s="6" t="s">
         <v>2</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B125" s="6" t="s">
         <v>3</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B126" s="6" t="s">
         <v>4</v>
       </c>
@@ -2127,15 +2136,15 @@
       <c r="M126" s="2"/>
       <c r="O126" s="5"/>
     </row>
-    <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B127" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B128" s="6" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B129" s="6" t="s">
         <v>7</v>
       </c>
@@ -2159,8 +2168,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="132" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B132" s="3" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B133" s="6" t="s">
         <v>1</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B134" s="6" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2193,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="135" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B135" s="6" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B136" s="6" t="s">
         <v>4</v>
       </c>
@@ -2200,15 +2209,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B137" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B138" s="6" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +2225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B139" s="6" t="s">
         <v>7</v>
       </c>
@@ -2232,8 +2241,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="26.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="142" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:3" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B142" s="3" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B143" s="6" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B144" s="6" t="s">
         <v>2</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B145" s="6" t="s">
         <v>3</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B146" s="6" t="s">
         <v>4</v>
       </c>
@@ -2275,15 +2284,15 @@
       <c r="M146" s="2"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B147" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B148" s="6" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B149" s="6" t="s">
         <v>7</v>
       </c>
@@ -2307,11 +2316,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B151" s="12"/>
       <c r="C151" s="13"/>
     </row>
-    <row r="152" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B152" s="3" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B153" s="6" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B154" s="6" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="155" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B155" s="6" t="s">
         <v>3</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B156" s="6" t="s">
         <v>4</v>
       </c>
@@ -2351,15 +2360,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B157" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B158" s="6" t="s">
         <v>6</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="159" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B159" s="6" t="s">
         <v>7</v>
       </c>
@@ -2383,11 +2392,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E161" s="12"/>
       <c r="F161" s="13"/>
     </row>
-    <row r="162" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B162" s="3" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2406,7 @@
       <c r="E162" s="12"/>
       <c r="F162" s="13"/>
     </row>
-    <row r="163" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B163" s="6" t="s">
         <v>1</v>
       </c>
@@ -2407,7 +2416,7 @@
       <c r="E163" s="12"/>
       <c r="F163" s="13"/>
     </row>
-    <row r="164" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B164" s="6" t="s">
         <v>2</v>
       </c>
@@ -2417,7 +2426,7 @@
       <c r="E164" s="12"/>
       <c r="F164" s="13"/>
     </row>
-    <row r="165" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B165" s="6" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2438,7 @@
       <c r="M165" s="2"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B166" s="6" t="s">
         <v>4</v>
       </c>
@@ -2439,7 +2448,7 @@
       <c r="E166" s="12"/>
       <c r="F166" s="13"/>
     </row>
-    <row r="167" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B167" s="6" t="s">
         <v>5</v>
       </c>
@@ -2449,7 +2458,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="13"/>
     </row>
-    <row r="168" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B168" s="6" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2468,7 @@
       <c r="E168" s="12"/>
       <c r="F168" s="13"/>
     </row>
-    <row r="169" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B169" s="6" t="s">
         <v>7</v>
       </c>
@@ -2479,11 +2488,11 @@
       <c r="E170" s="12"/>
       <c r="F170" s="13"/>
     </row>
-    <row r="171" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B171" s="12"/>
       <c r="C171" s="13"/>
     </row>
-    <row r="172" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B172" s="3" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B173" s="6" t="s">
         <v>1</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B174" s="6" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2516,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="175" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B175" s="6" t="s">
         <v>3</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B176" s="6" t="s">
         <v>4</v>
       </c>
@@ -2523,15 +2532,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="177" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B177" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="178" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B178" s="6" t="s">
         <v>6</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B179" s="6" t="s">
         <v>7</v>
       </c>
@@ -2555,11 +2564,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="181" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B181" s="12"/>
       <c r="C181" s="13"/>
     </row>
-    <row r="182" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B182" s="3" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2578,7 @@
       <c r="E182" s="12"/>
       <c r="F182" s="13"/>
     </row>
-    <row r="183" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B183" s="6" t="s">
         <v>1</v>
       </c>
@@ -2579,7 +2588,7 @@
       <c r="E183" s="12"/>
       <c r="F183" s="13"/>
     </row>
-    <row r="184" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B184" s="6" t="s">
         <v>2</v>
       </c>
@@ -2589,7 +2598,7 @@
       <c r="E184" s="12"/>
       <c r="F184" s="13"/>
     </row>
-    <row r="185" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B185" s="6" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2610,7 @@
       <c r="M185" s="2"/>
       <c r="O185" s="5"/>
     </row>
-    <row r="186" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B186" s="6" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2620,7 @@
       <c r="E186" s="12"/>
       <c r="F186" s="13"/>
     </row>
-    <row r="187" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B187" s="6" t="s">
         <v>5</v>
       </c>
@@ -2621,7 +2630,7 @@
       <c r="E187" s="12"/>
       <c r="F187" s="13"/>
     </row>
-    <row r="188" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B188" s="6" t="s">
         <v>6</v>
       </c>
@@ -2631,7 +2640,7 @@
       <c r="E188" s="12"/>
       <c r="F188" s="13"/>
     </row>
-    <row r="189" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B189" s="6" t="s">
         <v>7</v>
       </c>
@@ -2651,8 +2660,8 @@
       <c r="E190" s="12"/>
       <c r="F190" s="13"/>
     </row>
-    <row r="191" spans="2:15" ht="10" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="192" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B192" s="3" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="2:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:19" ht="29" x14ac:dyDescent="0.35">
       <c r="B193" s="6" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +2677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="194" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B194" s="6" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="195" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B195" s="6" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B196" s="6" t="s">
         <v>4</v>
       </c>
@@ -2692,15 +2701,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="197" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B197" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="198" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B198" s="6" t="s">
         <v>6</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="199" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B199" s="6" t="s">
         <v>7</v>
       </c>
@@ -2724,8 +2733,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="2:19" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="202" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:19" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B202" s="3" t="s">
         <v>0</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B203" s="6" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="204" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B204" s="6" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="205" spans="2:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:19" ht="29" x14ac:dyDescent="0.35">
       <c r="B205" s="6" t="s">
         <v>3</v>
       </c>
@@ -2760,7 +2769,7 @@
       <c r="O205" s="5"/>
       <c r="S205" s="2"/>
     </row>
-    <row r="206" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B206" s="6" t="s">
         <v>4</v>
       </c>
@@ -2768,15 +2777,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="207" spans="2:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B207" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="208" spans="2:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="208" spans="2:19" ht="29" x14ac:dyDescent="0.35">
       <c r="B208" s="6" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +2793,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B209" s="6" t="s">
         <v>7</v>
       </c>
@@ -2800,8 +2809,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="212" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B212" s="3" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B213" s="6" t="s">
         <v>1</v>
       </c>
@@ -2817,7 +2826,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="214" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B214" s="6" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="215" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B215" s="6" t="s">
         <v>3</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="216" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B216" s="6" t="s">
         <v>4</v>
       </c>
@@ -2841,15 +2850,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="217" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B217" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="218" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B218" s="6" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B219" s="6" t="s">
         <v>7</v>
       </c>
@@ -2873,8 +2882,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="222" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:3" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B222" s="3" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B223" s="6" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +2899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="224" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B224" s="6" t="s">
         <v>2</v>
       </c>
@@ -2898,7 +2907,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="225" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B225" s="6" t="s">
         <v>3</v>
       </c>
@@ -2908,7 +2917,7 @@
       <c r="M225" s="2"/>
       <c r="O225" s="5"/>
     </row>
-    <row r="226" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B226" s="6" t="s">
         <v>4</v>
       </c>
@@ -2918,17 +2927,17 @@
       <c r="M226" s="2"/>
       <c r="O226" s="5"/>
     </row>
-    <row r="227" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B227" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="M227" s="2"/>
       <c r="O227" s="5"/>
     </row>
-    <row r="228" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B228" s="6" t="s">
         <v>6</v>
       </c>
@@ -2938,7 +2947,7 @@
       <c r="M228" s="2"/>
       <c r="O228" s="5"/>
     </row>
-    <row r="229" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B229" s="6" t="s">
         <v>7</v>
       </c>
@@ -2958,11 +2967,11 @@
       <c r="M230" s="2"/>
       <c r="O230" s="5"/>
     </row>
-    <row r="231" spans="2:15" ht="7.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:15" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M231" s="2"/>
       <c r="O231" s="5"/>
     </row>
-    <row r="232" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B232" s="3" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2981,7 @@
       <c r="M232" s="2"/>
       <c r="O232" s="5"/>
     </row>
-    <row r="233" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B233" s="6" t="s">
         <v>1</v>
       </c>
@@ -2982,7 +2991,7 @@
       <c r="M233" s="2"/>
       <c r="O233" s="5"/>
     </row>
-    <row r="234" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B234" s="6" t="s">
         <v>2</v>
       </c>
@@ -2992,7 +3001,7 @@
       <c r="M234" s="2"/>
       <c r="O234" s="5"/>
     </row>
-    <row r="235" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B235" s="6" t="s">
         <v>3</v>
       </c>
@@ -3002,7 +3011,7 @@
       <c r="M235" s="2"/>
       <c r="O235" s="5"/>
     </row>
-    <row r="236" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B236" s="6" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3021,7 @@
       <c r="M236" s="2"/>
       <c r="O236" s="5"/>
     </row>
-    <row r="237" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B237" s="6" t="s">
         <v>5</v>
       </c>
@@ -3022,7 +3031,7 @@
       <c r="M237" s="2"/>
       <c r="O237" s="5"/>
     </row>
-    <row r="238" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B238" s="6" t="s">
         <v>6</v>
       </c>
@@ -3032,7 +3041,7 @@
       <c r="M238" s="2"/>
       <c r="O238" s="5"/>
     </row>
-    <row r="239" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B239" s="6" t="s">
         <v>7</v>
       </c>
@@ -3052,11 +3061,11 @@
       <c r="M240" s="2"/>
       <c r="O240" s="5"/>
     </row>
-    <row r="241" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M241" s="2"/>
       <c r="O241" s="5"/>
     </row>
-    <row r="242" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B242" s="3" t="s">
         <v>0</v>
       </c>
@@ -3066,7 +3075,7 @@
       <c r="M242" s="2"/>
       <c r="O242" s="5"/>
     </row>
-    <row r="243" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B243" s="6" t="s">
         <v>1</v>
       </c>
@@ -3076,7 +3085,7 @@
       <c r="M243" s="2"/>
       <c r="O243" s="5"/>
     </row>
-    <row r="244" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B244" s="6" t="s">
         <v>2</v>
       </c>
@@ -3086,7 +3095,7 @@
       <c r="M244" s="2"/>
       <c r="O244" s="5"/>
     </row>
-    <row r="245" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B245" s="6" t="s">
         <v>3</v>
       </c>
@@ -3096,7 +3105,7 @@
       <c r="M245" s="2"/>
       <c r="O245" s="5"/>
     </row>
-    <row r="246" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B246" s="6" t="s">
         <v>4</v>
       </c>
@@ -3106,7 +3115,7 @@
       <c r="M246" s="2"/>
       <c r="O246" s="5"/>
     </row>
-    <row r="247" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B247" s="6" t="s">
         <v>5</v>
       </c>
@@ -3116,7 +3125,7 @@
       <c r="M247" s="2"/>
       <c r="O247" s="5"/>
     </row>
-    <row r="248" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B248" s="6" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3135,7 @@
       <c r="M248" s="2"/>
       <c r="O248" s="5"/>
     </row>
-    <row r="249" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B249" s="6" t="s">
         <v>7</v>
       </c>
@@ -3146,11 +3155,11 @@
       <c r="M250" s="2"/>
       <c r="O250" s="5"/>
     </row>
-    <row r="251" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M251" s="2"/>
       <c r="O251" s="5"/>
     </row>
-    <row r="252" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B252" s="3" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3169,7 @@
       <c r="M252" s="2"/>
       <c r="O252" s="5"/>
     </row>
-    <row r="253" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B253" s="6" t="s">
         <v>1</v>
       </c>
@@ -3170,7 +3179,7 @@
       <c r="M253" s="2"/>
       <c r="O253" s="5"/>
     </row>
-    <row r="254" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B254" s="6" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3189,7 @@
       <c r="M254" s="2"/>
       <c r="O254" s="5"/>
     </row>
-    <row r="255" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B255" s="6" t="s">
         <v>3</v>
       </c>
@@ -3190,7 +3199,7 @@
       <c r="M255" s="2"/>
       <c r="O255" s="5"/>
     </row>
-    <row r="256" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B256" s="6" t="s">
         <v>4</v>
       </c>
@@ -3200,17 +3209,17 @@
       <c r="M256" s="2"/>
       <c r="O256" s="5"/>
     </row>
-    <row r="257" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B257" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="M257" s="2"/>
       <c r="O257" s="5"/>
     </row>
-    <row r="258" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B258" s="6" t="s">
         <v>6</v>
       </c>
@@ -3220,7 +3229,7 @@
       <c r="M258" s="2"/>
       <c r="O258" s="5"/>
     </row>
-    <row r="259" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B259" s="6" t="s">
         <v>7</v>
       </c>
@@ -3240,12 +3249,12 @@
       <c r="M260" s="2"/>
       <c r="O260" s="5"/>
     </row>
-    <row r="261" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E261" s="5"/>
       <c r="M261" s="2"/>
       <c r="O261" s="5"/>
     </row>
-    <row r="262" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B262" s="3" t="s">
         <v>0</v>
       </c>
@@ -3256,7 +3265,7 @@
       <c r="M262" s="2"/>
       <c r="O262" s="5"/>
     </row>
-    <row r="263" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B263" s="6" t="s">
         <v>1</v>
       </c>
@@ -3267,7 +3276,7 @@
       <c r="M263" s="2"/>
       <c r="O263" s="5"/>
     </row>
-    <row r="264" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B264" s="6" t="s">
         <v>2</v>
       </c>
@@ -3278,7 +3287,7 @@
       <c r="M264" s="2"/>
       <c r="O264" s="5"/>
     </row>
-    <row r="265" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B265" s="6" t="s">
         <v>3</v>
       </c>
@@ -3289,7 +3298,7 @@
       <c r="M265" s="2"/>
       <c r="O265" s="5"/>
     </row>
-    <row r="266" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B266" s="6" t="s">
         <v>4</v>
       </c>
@@ -3300,18 +3309,18 @@
       <c r="M266" s="2"/>
       <c r="O266" s="5"/>
     </row>
-    <row r="267" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B267" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="E267" s="5"/>
       <c r="M267" s="2"/>
       <c r="O267" s="5"/>
     </row>
-    <row r="268" spans="2:15" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B268" s="6" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3331,7 @@
       <c r="M268" s="2"/>
       <c r="O268" s="5"/>
     </row>
-    <row r="269" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B269" s="6" t="s">
         <v>7</v>
       </c>
@@ -3344,12 +3353,12 @@
       <c r="M270" s="2"/>
       <c r="O270" s="5"/>
     </row>
-    <row r="271" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E271" s="5"/>
       <c r="M271" s="2"/>
       <c r="O271" s="5"/>
     </row>
-    <row r="272" spans="2:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B272" s="3" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B273" s="6" t="s">
         <v>1</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="274" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B274" s="6" t="s">
         <v>2</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="275" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" s="6" t="s">
         <v>3</v>
       </c>
@@ -3381,7 +3390,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="276" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" s="6" t="s">
         <v>4</v>
       </c>
@@ -3389,15 +3398,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="277" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B277" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B278" s="6" t="s">
         <v>6</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="279" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" s="6" t="s">
         <v>7</v>
       </c>
@@ -3421,10 +3430,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="281" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B282" s="3" t="s">
         <v>0</v>
       </c>
@@ -3433,7 +3442,7 @@
       </c>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B283" s="6" t="s">
         <v>1</v>
       </c>
@@ -3442,7 +3451,7 @@
       </c>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B284" s="6" t="s">
         <v>2</v>
       </c>
@@ -3451,7 +3460,7 @@
       </c>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B285" s="6" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3469,7 @@
       </c>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B286" s="6" t="s">
         <v>4</v>
       </c>
@@ -3469,7 +3478,7 @@
       </c>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" s="6" t="s">
         <v>5</v>
       </c>
@@ -3478,7 +3487,7 @@
       </c>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B288" s="6" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3496,7 @@
       </c>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B289" s="6" t="s">
         <v>7</v>
       </c>
@@ -3505,29 +3514,22 @@
       </c>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E295" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C295" xr:uid="{293AA2FC-3EF2-4F89-B916-7D2D989016C7}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Sentiment           "/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
